--- a/plot.xlsx
+++ b/plot.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI learning\PRO2\GenInDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332BF1CA-4851-4BEC-91AC-1D958657E0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A76AC6-5F04-4596-9D21-D9D58F5B14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>erasing_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +69,16 @@
   </si>
   <si>
     <t>low_cam_resnet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>resnet18</t>
+  </si>
+  <si>
+    <t>space</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -727,4 +738,131 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48ED3D-B7B2-4C59-9711-0351447E957F}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>92.55</v>
+      </c>
+      <c r="C2" s="1">
+        <v>77.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>89.56</v>
+      </c>
+      <c r="C3" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>85.62</v>
+      </c>
+      <c r="C4" s="1">
+        <v>64.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>82.28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>61.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>77.66</v>
+      </c>
+      <c r="C6" s="1">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>72.63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>53.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>67.33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>62.41</v>
+      </c>
+      <c r="C9" s="1">
+        <v>49.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>56.49</v>
+      </c>
+      <c r="C10" s="1">
+        <v>46.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plot.xlsx
+++ b/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI learning\PRO2\GenInDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A76AC6-5F04-4596-9D21-D9D58F5B14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F1559-D57F-4F35-9726-A2DADB153609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>erasing_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,13 +72,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vit</t>
-  </si>
-  <si>
-    <t>resnet18</t>
-  </si>
-  <si>
     <t>space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_vit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_resnet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_vit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_resnet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_vit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_resnet18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +432,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,16 +512,16 @@
         <v>0.02</v>
       </c>
       <c r="B3" s="1">
-        <v>96.19</v>
+        <v>94.88</v>
       </c>
       <c r="C3" s="1">
-        <v>87.47</v>
+        <v>83.14</v>
       </c>
       <c r="D3" s="1">
-        <v>96.89</v>
+        <v>96.34</v>
       </c>
       <c r="E3" s="1">
-        <v>90.24</v>
+        <v>87.62</v>
       </c>
       <c r="F3" s="1">
         <v>95.3</v>
@@ -529,16 +547,16 @@
         <v>0.05</v>
       </c>
       <c r="B4" s="1">
-        <v>94.13</v>
+        <v>90.18</v>
       </c>
       <c r="C4" s="1">
-        <v>80.92</v>
+        <v>72.58</v>
       </c>
       <c r="D4" s="1">
-        <v>95.59</v>
+        <v>94.23</v>
       </c>
       <c r="E4" s="1">
-        <v>86.18</v>
+        <v>80.7</v>
       </c>
       <c r="F4" s="1">
         <v>90.5</v>
@@ -564,16 +582,16 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="1">
-        <v>89.99</v>
+        <v>82.28</v>
       </c>
       <c r="C5" s="1">
-        <v>73.040000000000006</v>
+        <v>61.01</v>
       </c>
       <c r="D5" s="1">
-        <v>94.43</v>
+        <v>91.81</v>
       </c>
       <c r="E5" s="1">
-        <v>80.88</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="F5" s="1">
         <v>79.28</v>
@@ -599,16 +617,16 @@
         <v>0.15</v>
       </c>
       <c r="B6" s="1">
-        <v>86.14</v>
+        <v>76.209999999999994</v>
       </c>
       <c r="C6" s="1">
-        <v>66.430000000000007</v>
+        <v>52.4</v>
       </c>
       <c r="D6" s="1">
-        <v>92.76</v>
+        <v>90.41</v>
       </c>
       <c r="E6" s="1">
-        <v>76.98</v>
+        <v>68.03</v>
       </c>
       <c r="F6" s="1">
         <v>66.7</v>
@@ -634,16 +652,16 @@
         <v>0.2</v>
       </c>
       <c r="B7" s="1">
-        <v>82.28</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="C7" s="1">
-        <v>61.01</v>
+        <v>45.78</v>
       </c>
       <c r="D7" s="1">
-        <v>91.81</v>
+        <v>89.77</v>
       </c>
       <c r="E7" s="1">
-        <v>73.150000000000006</v>
+        <v>63.66</v>
       </c>
       <c r="F7" s="1">
         <v>56.32</v>
@@ -669,16 +687,16 @@
         <v>0.3</v>
       </c>
       <c r="B8" s="1">
-        <v>76.38</v>
+        <v>67.3</v>
       </c>
       <c r="C8" s="1">
-        <v>52.35</v>
+        <v>37.29</v>
       </c>
       <c r="D8" s="1">
-        <v>90.41</v>
+        <v>87.97</v>
       </c>
       <c r="E8" s="1">
-        <v>68.03</v>
+        <v>59.24</v>
       </c>
       <c r="F8" s="1">
         <v>41.9</v>
@@ -704,16 +722,16 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>73.180000000000007</v>
+        <v>58.37</v>
       </c>
       <c r="C9" s="1">
-        <v>45.78</v>
+        <v>33.35</v>
       </c>
       <c r="D9" s="1">
-        <v>89.77</v>
+        <v>85.86</v>
       </c>
       <c r="E9" s="1">
-        <v>63.76</v>
+        <v>59.2</v>
       </c>
       <c r="F9" s="1">
         <v>34.19</v>
@@ -742,114 +760,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48ED3D-B7B2-4C59-9711-0351447E957F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
       <c r="B2" s="1">
-        <v>92.55</v>
+        <v>84.37</v>
       </c>
       <c r="C2" s="1">
-        <v>77.53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72.84</v>
+      </c>
+      <c r="D2" s="1">
+        <v>86.05</v>
+      </c>
+      <c r="E2" s="1">
+        <v>74.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.3</v>
       </c>
       <c r="B3" s="1">
-        <v>89.56</v>
+        <v>82.06</v>
       </c>
       <c r="C3" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57.58</v>
+      </c>
+      <c r="D3" s="1">
+        <v>85.94</v>
+      </c>
+      <c r="E3" s="1">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.4</v>
       </c>
       <c r="B4" s="1">
-        <v>85.62</v>
+        <v>78.25</v>
       </c>
       <c r="C4" s="1">
-        <v>64.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50.31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1">
+        <v>56.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.5</v>
       </c>
       <c r="B5" s="1">
-        <v>82.28</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="C5" s="1">
-        <v>61.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45.78</v>
+      </c>
+      <c r="D5" s="1">
+        <v>81.58</v>
+      </c>
+      <c r="E5" s="1">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.6</v>
       </c>
       <c r="B6" s="1">
-        <v>77.66</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="C6" s="1">
-        <v>57.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>76.88</v>
+      </c>
+      <c r="E6" s="1">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
       <c r="B7" s="1">
-        <v>72.63</v>
+        <v>64.38</v>
       </c>
       <c r="C7" s="1">
-        <v>53.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44.32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>71.22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>46.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.8</v>
       </c>
       <c r="B8" s="1">
-        <v>67.33</v>
+        <v>61.51</v>
       </c>
       <c r="C8" s="1">
-        <v>50.58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45.14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.9</v>
       </c>
       <c r="B9" s="1">
-        <v>62.41</v>
+        <v>58.94</v>
       </c>
       <c r="C9" s="1">
-        <v>49.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45.59</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60.91</v>
+      </c>
+      <c r="E9" s="1">
+        <v>46.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -857,6 +935,12 @@
         <v>56.49</v>
       </c>
       <c r="C10" s="1">
+        <v>46.63</v>
+      </c>
+      <c r="D10" s="1">
+        <v>56.49</v>
+      </c>
+      <c r="E10" s="1">
         <v>46.63</v>
       </c>
     </row>

--- a/plot.xlsx
+++ b/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI learning\PRO2\GenInDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F1559-D57F-4F35-9726-A2DADB153609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3FC6BF-8059-4E47-BCB3-CB1CB6093F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,6 +807,12 @@
       <c r="E2" s="1">
         <v>74.63</v>
       </c>
+      <c r="F2" s="1">
+        <v>95.95</v>
+      </c>
+      <c r="G2" s="1">
+        <v>91.23</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -824,6 +830,12 @@
       <c r="E3" s="1">
         <v>62.85</v>
       </c>
+      <c r="F3" s="1">
+        <v>94.48</v>
+      </c>
+      <c r="G3" s="1">
+        <v>81.81</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -841,6 +853,12 @@
       <c r="E4" s="1">
         <v>56.93</v>
       </c>
+      <c r="F4" s="1">
+        <v>92.66</v>
+      </c>
+      <c r="G4" s="1">
+        <v>72.55</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -858,6 +876,12 @@
       <c r="E5" s="1">
         <v>52.39</v>
       </c>
+      <c r="F5" s="1">
+        <v>89.77</v>
+      </c>
+      <c r="G5" s="1">
+        <v>63.66</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -875,6 +899,12 @@
       <c r="E6" s="1">
         <v>49.1</v>
       </c>
+      <c r="F6" s="1">
+        <v>85.14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -892,6 +922,12 @@
       <c r="E7" s="1">
         <v>46.91</v>
       </c>
+      <c r="F7" s="1">
+        <v>78.84</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50.33</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -909,6 +945,12 @@
       <c r="E8" s="1">
         <v>45.01</v>
       </c>
+      <c r="F8" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -926,6 +968,12 @@
       <c r="E9" s="1">
         <v>46.13</v>
       </c>
+      <c r="F9" s="1">
+        <v>63.32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>46.61</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -942,6 +990,12 @@
       </c>
       <c r="E10" s="1">
         <v>46.63</v>
+      </c>
+      <c r="F10" s="1">
+        <v>56.78</v>
+      </c>
+      <c r="G10" s="1">
+        <v>46.6</v>
       </c>
     </row>
   </sheetData>

--- a/plot.xlsx
+++ b/plot.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI learning\PRO2\GenInDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3FC6BF-8059-4E47-BCB3-CB1CB6093F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E775CD04-51EC-4AA7-9088-94EF2EE76E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>erasing_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +99,34 @@
   <si>
     <t>low_resnet18</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet34</t>
+  </si>
+  <si>
+    <t>vgg11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pgd</t>
+  </si>
+  <si>
+    <t>ist</t>
+  </si>
+  <si>
+    <t>robust(1)</t>
   </si>
 </sst>
 </file>
@@ -762,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48ED3D-B7B2-4C59-9711-0351447E957F}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,4 +1032,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EABFD05-F64C-4BEB-B712-0F8947F20510}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>73.03</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46.88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44.01</v>
+      </c>
+      <c r="F2" s="1">
+        <v>56.01</v>
+      </c>
+      <c r="G2" s="1">
+        <v>62.76</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>68.69</v>
+      </c>
+      <c r="C3" s="1">
+        <v>46.51</v>
+      </c>
+      <c r="D3" s="1">
+        <v>37.97</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43.18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="H3" s="1">
+        <v>61.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67.31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45.25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41.33</v>
+      </c>
+      <c r="F4" s="1">
+        <v>63.33</v>
+      </c>
+      <c r="G4" s="1">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="H4" s="1">
+        <v>62.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>46.34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42.79</v>
+      </c>
+      <c r="F5" s="1">
+        <v>67.86</v>
+      </c>
+      <c r="G5" s="1">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="H5" s="1">
+        <v>65.260000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>56.07</v>
+      </c>
+      <c r="C6" s="1">
+        <v>47.55</v>
+      </c>
+      <c r="D6" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42.41</v>
+      </c>
+      <c r="F6" s="1">
+        <v>68.37</v>
+      </c>
+      <c r="G6" s="1">
+        <v>71.34</v>
+      </c>
+      <c r="H6" s="1">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="B7" s="1">
+        <v>59.25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>48.42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>39.26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44.97</v>
+      </c>
+      <c r="F7" s="1">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="G7" s="1">
+        <v>71.86</v>
+      </c>
+      <c r="H7" s="1">
+        <v>67.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B8" s="1">
+        <v>59.54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>51.78</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40.76</v>
+      </c>
+      <c r="E8" s="1">
+        <v>48.47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>66.930000000000007</v>
+      </c>
+      <c r="G8" s="1">
+        <v>71.75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>69.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="B9" s="1">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1">
+        <v>57.11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="E9" s="1">
+        <v>54.25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="G9" s="1">
+        <v>72.53</v>
+      </c>
+      <c r="H9" s="1">
+        <v>73.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>89.78</v>
+      </c>
+      <c r="C10" s="1">
+        <v>63.15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>48.44</v>
+      </c>
+      <c r="E10" s="1">
+        <v>59.38</v>
+      </c>
+      <c r="F10" s="1">
+        <v>63.91</v>
+      </c>
+      <c r="G10" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>76.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plot.xlsx
+++ b/plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI learning\PRO2\GenInDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E775CD04-51EC-4AA7-9088-94EF2EE76E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB770B8-5DFE-450B-A473-A63A16F361EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48ED3D-B7B2-4C59-9711-0351447E957F}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EABFD05-F64C-4BEB-B712-0F8947F20510}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/plot.xlsx
+++ b/plot.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI learning\PRO2\GenInDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB770B8-5DFE-450B-A473-A63A16F361EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869BC760-D524-4643-A42C-8992C97A5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="resnet18" sheetId="4" r:id="rId2"/>
+    <sheet name="vit" sheetId="5" r:id="rId3"/>
+    <sheet name="wide_resnet50" sheetId="6" r:id="rId4"/>
+    <sheet name="proportional" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>erasing_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +131,40 @@
   </si>
   <si>
     <t>robust(1)</t>
+  </si>
+  <si>
+    <t>global_random_erasing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front_random_erasing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_random_erasing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front_erasing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_erasing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>resnet18</t>
+  </si>
+  <si>
+    <t>wide-resnet50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,10 +826,693 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044C703B-9FE9-4823-9681-73E7FCC974DE}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>84.97</v>
+      </c>
+      <c r="C2" s="1">
+        <v>84.97</v>
+      </c>
+      <c r="D2" s="1">
+        <v>84.97</v>
+      </c>
+      <c r="E2" s="1">
+        <v>84.97</v>
+      </c>
+      <c r="F2" s="1">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="1">
+        <v>74.62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>77.42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80.17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="F3" s="1">
+        <v>82.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67.94</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70.62</v>
+      </c>
+      <c r="D4" s="1">
+        <v>77.760000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>78.16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>81.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>59.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>62.26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>74.81</v>
+      </c>
+      <c r="E5" s="1">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="F5" s="1">
+        <v>79.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>52.09</v>
+      </c>
+      <c r="C6" s="1">
+        <v>55.58</v>
+      </c>
+      <c r="D6" s="1">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="E6" s="1">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="F6" s="1">
+        <v>73.239999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45.12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>49.22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>69.459999999999994</v>
+      </c>
+      <c r="E7" s="1">
+        <v>57.59</v>
+      </c>
+      <c r="F7" s="1">
+        <v>68.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30.95</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40.93</v>
+      </c>
+      <c r="D8" s="1">
+        <v>65.56</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44.32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>66.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6492FD87-1164-442A-9EE3-E489B2859E73}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>91.12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>91.12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>91.12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>91.12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>91.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90.73</v>
+      </c>
+      <c r="C3" s="1">
+        <v>91.02</v>
+      </c>
+      <c r="D3" s="1">
+        <v>90.16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>90.92</v>
+      </c>
+      <c r="F3" s="1">
+        <v>91.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="1">
+        <v>89.27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>89.41</v>
+      </c>
+      <c r="D4" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="E4" s="1">
+        <v>89.46</v>
+      </c>
+      <c r="F4" s="1">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>87.07</v>
+      </c>
+      <c r="C5" s="1">
+        <v>87.53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>87.82</v>
+      </c>
+      <c r="E5" s="1">
+        <v>88.41</v>
+      </c>
+      <c r="F5" s="1">
+        <v>90.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>86.37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>84.49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>87.02</v>
+      </c>
+      <c r="E6" s="1">
+        <v>86.53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>89.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>83.78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>82.96</v>
+      </c>
+      <c r="D7" s="1">
+        <v>85.62</v>
+      </c>
+      <c r="E7" s="1">
+        <v>84.61</v>
+      </c>
+      <c r="F7" s="1">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="C8" s="1">
+        <v>76.680000000000007</v>
+      </c>
+      <c r="D8" s="1">
+        <v>84.09</v>
+      </c>
+      <c r="E8" s="1">
+        <v>79.92</v>
+      </c>
+      <c r="F8" s="1">
+        <v>87.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46D6FBE-BF80-4B34-9752-F08DCC599584}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>91.17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>91.17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>91.17</v>
+      </c>
+      <c r="E2" s="1">
+        <v>91.17</v>
+      </c>
+      <c r="F2" s="1">
+        <v>91.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="1">
+        <v>83.32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>86.64</v>
+      </c>
+      <c r="D3" s="1">
+        <v>87.65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>89.04</v>
+      </c>
+      <c r="F3" s="1">
+        <v>89.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="1">
+        <v>80.16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>82.36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>86.46</v>
+      </c>
+      <c r="E4" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>88.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>82.71</v>
+      </c>
+      <c r="E5" s="1">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="F5" s="1">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="C6" s="1">
+        <v>68.47</v>
+      </c>
+      <c r="D6" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="F6" s="1">
+        <v>83.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>64.58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>61.47</v>
+      </c>
+      <c r="D7" s="1">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>80.010000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>49.42</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50.58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="E8" s="1">
+        <v>57.09</v>
+      </c>
+      <c r="F8" s="1">
+        <v>78.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F55B90-7A0C-4F9D-B90A-3E16343F6945}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>83.01</v>
+      </c>
+      <c r="C2" s="1">
+        <v>48.56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>63.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>82.94</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41.78</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>82.25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43.35</v>
+      </c>
+      <c r="D4" s="1">
+        <v>61.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>82.39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43.27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>63.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>83.49</v>
+      </c>
+      <c r="C6" s="1">
+        <v>46.03</v>
+      </c>
+      <c r="D6" s="1">
+        <v>65.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="B7" s="1">
+        <v>84.56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>47.87</v>
+      </c>
+      <c r="D7" s="1">
+        <v>67.010000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B8" s="1">
+        <v>85.07</v>
+      </c>
+      <c r="C8" s="1">
+        <v>49.89</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="B9" s="1">
+        <v>85.19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>55.95</v>
+      </c>
+      <c r="D9" s="1">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>86.53</v>
+      </c>
+      <c r="C10" s="1">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80.349999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48ED3D-B7B2-4C59-9711-0351447E957F}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="U10" sqref="U10:U11"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EABFD05-F64C-4BEB-B712-0F8947F20510}">
   <dimension ref="A1:H10"/>
   <sheetViews>
